--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PnigraPsylvestris_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PnigraPsylvestris_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,42 +457,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
         <v>21</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>22</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1347.51185151138</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.81841041666667</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>11.87136153388109</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-2.584216620694405</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>42.80203143854964</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>36.15969406432105</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>34.6536145869261</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>32.8954128440367</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>31.5664813596151</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>30.20565997734472</v>
       </c>
     </row>
@@ -503,42 +511,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>27</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>357.2144278284762</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>14.96137916666667</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9.065884242104518</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-2.302765356440854</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>42.81867372252411</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>45.39721689693013</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>44.28336079811226</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>42.09851826595679</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>40.23446650088783</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>38.33397008967201</v>
       </c>
     </row>
@@ -554,42 +565,45 @@
         </is>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1287.386650787776</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>31.72505763888889</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>13.78294212105226</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-2.389182661137615</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>42.73812120589592</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>36.60986027428146</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>34.67539961722685</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>32.95441749725478</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>31.48405994674065</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>30.02688662349738</v>
       </c>
     </row>
